--- a/Attend sentiment analysis.xlsx
+++ b/Attend sentiment analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3602a8a88d9309d0/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Syllabus Review Project 7-14\syllabus-review-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F640429B-EAD1-410C-96B1-7DCC260FF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BC1141-4758-4ADF-8417-10399F8E4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
-  <si>
-    <t>File</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Polarity</t>
   </si>
@@ -31,715 +28,10 @@
     <t>Subjectivity</t>
   </si>
   <si>
-    <t>1-Attend.txt</t>
-  </si>
-  <si>
-    <t>2-Attend.txt</t>
-  </si>
-  <si>
-    <t>3-Attend.txt</t>
-  </si>
-  <si>
-    <t>4-Attend.txt</t>
-  </si>
-  <si>
-    <t>5-Attend.txt</t>
-  </si>
-  <si>
-    <t>6-Attend.txt</t>
-  </si>
-  <si>
-    <t>7-Attend.txt</t>
-  </si>
-  <si>
-    <t>9-Attend.txt</t>
-  </si>
-  <si>
-    <t>10-Attend.txt</t>
-  </si>
-  <si>
-    <t>11-Attend.txt</t>
-  </si>
-  <si>
-    <t>12-Attend.txt</t>
-  </si>
-  <si>
-    <t>13-Attend.txt</t>
-  </si>
-  <si>
-    <t>14-Attend.txt</t>
-  </si>
-  <si>
-    <t>15-Attend.txt</t>
-  </si>
-  <si>
-    <t>16-Attend.txt</t>
-  </si>
-  <si>
-    <t>17-Attend.txt</t>
-  </si>
-  <si>
-    <t>19-Attend.txt</t>
-  </si>
-  <si>
-    <t>21-Attend.txt</t>
-  </si>
-  <si>
-    <t>22-Attend.txt</t>
-  </si>
-  <si>
-    <t>23-Attend.txt</t>
-  </si>
-  <si>
-    <t>24-Attend.txt</t>
-  </si>
-  <si>
-    <t>25-Attend.txt</t>
-  </si>
-  <si>
-    <t>27-Attend.txt</t>
-  </si>
-  <si>
-    <t>28-Attend.txt</t>
-  </si>
-  <si>
-    <t>29-Attend.txt</t>
-  </si>
-  <si>
-    <t>31-Attend.txt</t>
-  </si>
-  <si>
-    <t>34-Attend.txt</t>
-  </si>
-  <si>
-    <t>35-Attend.txt</t>
-  </si>
-  <si>
-    <t>36-Attend.txt</t>
-  </si>
-  <si>
-    <t>37-Attend.txt</t>
-  </si>
-  <si>
-    <t>38-Attend.txt</t>
-  </si>
-  <si>
-    <t>40-Attend.txt</t>
-  </si>
-  <si>
-    <t>42-Attend.txt</t>
-  </si>
-  <si>
-    <t>45-Attend.txt</t>
-  </si>
-  <si>
-    <t>51-Attend.txt</t>
-  </si>
-  <si>
-    <t>54-Attend.txt</t>
-  </si>
-  <si>
-    <t>55-Attend.txt</t>
-  </si>
-  <si>
-    <t>56-Attend.txt</t>
-  </si>
-  <si>
-    <t>58-Attend.txt</t>
-  </si>
-  <si>
-    <t>60-Attend.txt</t>
-  </si>
-  <si>
-    <t>61-Attend.txt</t>
-  </si>
-  <si>
-    <t>62-Attend.txt</t>
-  </si>
-  <si>
-    <t>64-Attend.txt</t>
-  </si>
-  <si>
-    <t>68-Attend.txt</t>
-  </si>
-  <si>
-    <t>70-Attend.txt</t>
-  </si>
-  <si>
-    <t>71-Attend.txt</t>
-  </si>
-  <si>
-    <t>72-Attend.txt</t>
-  </si>
-  <si>
-    <t>73-Attend.txt</t>
-  </si>
-  <si>
-    <t>74-Attend.txt</t>
-  </si>
-  <si>
-    <t>75-Attend.txt</t>
-  </si>
-  <si>
-    <t>76-Attend.txt</t>
-  </si>
-  <si>
-    <t>77-Attend.txt</t>
-  </si>
-  <si>
-    <t>78-Attend.txt</t>
-  </si>
-  <si>
-    <t>79-Attend.txt</t>
-  </si>
-  <si>
-    <t>81-Attend.txt</t>
-  </si>
-  <si>
-    <t>82-Attend.txt</t>
-  </si>
-  <si>
-    <t>83-Attend.txt</t>
-  </si>
-  <si>
-    <t>87-Attend.txt</t>
-  </si>
-  <si>
-    <t>91-Attend.txt</t>
-  </si>
-  <si>
-    <t>92-Attend.txt</t>
-  </si>
-  <si>
-    <t>93-Attend.txt</t>
-  </si>
-  <si>
-    <t>94-Attend.txt</t>
-  </si>
-  <si>
-    <t>95-Attend.txt</t>
-  </si>
-  <si>
-    <t>98-Attend.txt</t>
-  </si>
-  <si>
-    <t>100-Attend.txt</t>
-  </si>
-  <si>
-    <t>101-Attend.txt</t>
-  </si>
-  <si>
-    <t>103-Attend.txt</t>
-  </si>
-  <si>
-    <t>105-Attend.txt</t>
-  </si>
-  <si>
-    <t>106-Attend.txt</t>
-  </si>
-  <si>
-    <t>107-Attend.txt</t>
-  </si>
-  <si>
-    <t>108-Attend.txt</t>
-  </si>
-  <si>
-    <t>109-Attend.txt</t>
-  </si>
-  <si>
-    <t>110-Attend.txt</t>
-  </si>
-  <si>
-    <t>112-Attend.txt</t>
-  </si>
-  <si>
-    <t>115-Attend.txt</t>
-  </si>
-  <si>
-    <t>116-Attend.txt</t>
-  </si>
-  <si>
-    <t>120-Attend.txt</t>
-  </si>
-  <si>
-    <t>121-Attend.txt</t>
-  </si>
-  <si>
-    <t>122-Attend.txt</t>
-  </si>
-  <si>
-    <t>124-Attend.txt</t>
-  </si>
-  <si>
-    <t>125-Attend.txt</t>
-  </si>
-  <si>
-    <t>126-Attend.txt</t>
-  </si>
-  <si>
-    <t>127-Attend.txt</t>
-  </si>
-  <si>
-    <t>128-Attend.txt</t>
-  </si>
-  <si>
-    <t>129-Attend.txt</t>
-  </si>
-  <si>
-    <t>130-Attend.txt</t>
-  </si>
-  <si>
-    <t>132-Attend.txt</t>
-  </si>
-  <si>
-    <t>133-Attend.txt</t>
-  </si>
-  <si>
-    <t>134-Attend.txt</t>
-  </si>
-  <si>
-    <t>135-Attend.txt</t>
-  </si>
-  <si>
-    <t>137-Attend.txt</t>
-  </si>
-  <si>
-    <t>138-Attend.txt</t>
-  </si>
-  <si>
-    <t>140-Attend.txt</t>
-  </si>
-  <si>
-    <t>142-Attend.txt</t>
-  </si>
-  <si>
-    <t>143-Attend.txt</t>
-  </si>
-  <si>
-    <t>144-Attend.txt</t>
-  </si>
-  <si>
-    <t>145-Attend.txt</t>
-  </si>
-  <si>
-    <t>146-Attend.txt</t>
-  </si>
-  <si>
-    <t>147-Attend.txt</t>
-  </si>
-  <si>
-    <t>149-Attend.txt</t>
-  </si>
-  <si>
-    <t>151-Attend.txt</t>
-  </si>
-  <si>
-    <t>152-Attend.txt</t>
-  </si>
-  <si>
-    <t>154-Attend.txt</t>
-  </si>
-  <si>
-    <t>156-Attend.txt</t>
-  </si>
-  <si>
-    <t>157-Attend.txt</t>
-  </si>
-  <si>
-    <t>158-Attend.txt</t>
-  </si>
-  <si>
-    <t>159-Attend.txt</t>
-  </si>
-  <si>
-    <t>160-Attend.txt</t>
-  </si>
-  <si>
-    <t>162-Attend.txt</t>
-  </si>
-  <si>
-    <t>163-Attend.txt</t>
-  </si>
-  <si>
-    <t>164-Attend.txt</t>
-  </si>
-  <si>
-    <t>165-Attend.txt</t>
-  </si>
-  <si>
-    <t>167-Attend.txt</t>
-  </si>
-  <si>
-    <t>168-Attend.txt</t>
-  </si>
-  <si>
-    <t>172-Attend.txt</t>
-  </si>
-  <si>
-    <t>173-Attend.txt</t>
-  </si>
-  <si>
-    <t>174-Attend.txt</t>
-  </si>
-  <si>
-    <t>176-Attend.txt</t>
-  </si>
-  <si>
-    <t>177-Attend.txt</t>
-  </si>
-  <si>
-    <t>178-Attend.txt</t>
-  </si>
-  <si>
-    <t>179-Attend.txt</t>
-  </si>
-  <si>
-    <t>181-Attend.txt</t>
-  </si>
-  <si>
-    <t>182-Attend.txt</t>
-  </si>
-  <si>
-    <t>183-Attend.txt</t>
-  </si>
-  <si>
-    <t>184-Attend.txt</t>
-  </si>
-  <si>
-    <t>186-Attend.txt</t>
-  </si>
-  <si>
-    <t>187-Attend.txt</t>
-  </si>
-  <si>
-    <t>188-Attend.txt</t>
-  </si>
-  <si>
-    <t>189-Attend.txt</t>
-  </si>
-  <si>
-    <t>190-Attend.txt</t>
-  </si>
-  <si>
-    <t>191-Attend.txt</t>
-  </si>
-  <si>
-    <t>193-Attend.txt</t>
-  </si>
-  <si>
-    <t>194-Attend.txt</t>
-  </si>
-  <si>
-    <t>195-Attend.txt</t>
-  </si>
-  <si>
-    <t>200-Attend.txt</t>
-  </si>
-  <si>
-    <t>203-Attend.txt</t>
-  </si>
-  <si>
-    <t>205-Attend.txt</t>
-  </si>
-  <si>
-    <t>212-Attend.txt</t>
-  </si>
-  <si>
-    <t>213-Attend.txt</t>
-  </si>
-  <si>
-    <t>222-Attend.txt</t>
-  </si>
-  <si>
-    <t>223-Attend.txt</t>
-  </si>
-  <si>
-    <t>225-Attend.txt</t>
-  </si>
-  <si>
-    <t>227-Attend.txt</t>
-  </si>
-  <si>
-    <t>228-Attend.txt</t>
-  </si>
-  <si>
-    <t>229-Attend.txt</t>
-  </si>
-  <si>
-    <t>230-Attend.txt</t>
-  </si>
-  <si>
-    <t>231-Attend.txt</t>
-  </si>
-  <si>
-    <t>233-Attend.txt</t>
-  </si>
-  <si>
-    <t>236-Attend.txt</t>
-  </si>
-  <si>
-    <t>237-Attend.txt</t>
-  </si>
-  <si>
-    <t>238-Attend.txt</t>
-  </si>
-  <si>
-    <t>239-Attend.txt</t>
-  </si>
-  <si>
-    <t>240-Attend.txt</t>
-  </si>
-  <si>
-    <t>241-Attend.txt</t>
-  </si>
-  <si>
-    <t>242-Attend.txt</t>
-  </si>
-  <si>
-    <t>243-Attend.txt</t>
-  </si>
-  <si>
-    <t>244-Attend.txt</t>
-  </si>
-  <si>
-    <t>245-Attend.txt</t>
-  </si>
-  <si>
-    <t>246-Attend.txt</t>
-  </si>
-  <si>
-    <t>247-Attend.txt</t>
-  </si>
-  <si>
-    <t>248-Attend.txt</t>
-  </si>
-  <si>
-    <t>249-Attend.txt</t>
-  </si>
-  <si>
-    <t>250-Attend.txt</t>
-  </si>
-  <si>
-    <t>251-Attend.txt</t>
-  </si>
-  <si>
-    <t>252-Attend.txt</t>
-  </si>
-  <si>
-    <t>253-Attend.txt</t>
-  </si>
-  <si>
-    <t>255-Attend.txt</t>
-  </si>
-  <si>
-    <t>256-Attend.txt</t>
-  </si>
-  <si>
-    <t>257-Attend.txt</t>
-  </si>
-  <si>
-    <t>258-Attend.txt</t>
-  </si>
-  <si>
-    <t>261-Attend.txt</t>
-  </si>
-  <si>
-    <t>262-Attend.txt</t>
-  </si>
-  <si>
-    <t>263-Attend.txt</t>
-  </si>
-  <si>
-    <t>264-Attend.txt</t>
-  </si>
-  <si>
-    <t>266-Attend.txt</t>
-  </si>
-  <si>
-    <t>267-Attend.txt</t>
-  </si>
-  <si>
-    <t>274-Attend.txt</t>
-  </si>
-  <si>
-    <t>275-Attend.txt</t>
-  </si>
-  <si>
-    <t>276-Attend.txt</t>
-  </si>
-  <si>
-    <t>277-Attend.txt</t>
-  </si>
-  <si>
-    <t>280-Attend.txt</t>
-  </si>
-  <si>
-    <t>281-Attend.txt</t>
-  </si>
-  <si>
-    <t>282-Attend.txt</t>
-  </si>
-  <si>
-    <t>284-Attend.txt</t>
-  </si>
-  <si>
-    <t>285-Attend.txt</t>
-  </si>
-  <si>
-    <t>286-Attend.txt</t>
-  </si>
-  <si>
-    <t>287-Attend.txt</t>
-  </si>
-  <si>
-    <t>288-Attend.txt</t>
-  </si>
-  <si>
-    <t>293-Attend.txt</t>
-  </si>
-  <si>
-    <t>294-Attend.txt</t>
-  </si>
-  <si>
-    <t>295-Attend.txt</t>
-  </si>
-  <si>
-    <t>297-Attend.txt</t>
-  </si>
-  <si>
-    <t>298-Attend.txt</t>
-  </si>
-  <si>
-    <t>299-Attend.txt</t>
-  </si>
-  <si>
-    <t>300-Attend.txt</t>
-  </si>
-  <si>
-    <t>301-Attend.txt</t>
-  </si>
-  <si>
-    <t>302-Attend.txt</t>
-  </si>
-  <si>
-    <t>303-Attend.txt</t>
-  </si>
-  <si>
-    <t>305-Attend.txt</t>
-  </si>
-  <si>
-    <t>306-Attend.txt</t>
-  </si>
-  <si>
-    <t>308-Attend.txt</t>
-  </si>
-  <si>
-    <t>309-Attend.txt</t>
-  </si>
-  <si>
-    <t>311-Attend.txt</t>
-  </si>
-  <si>
-    <t>312-Attend.txt</t>
-  </si>
-  <si>
-    <t>313-Attend.txt</t>
-  </si>
-  <si>
-    <t>314-Attend.txt</t>
-  </si>
-  <si>
-    <t>315-Attend.txt</t>
-  </si>
-  <si>
-    <t>316-Attend.txt</t>
-  </si>
-  <si>
-    <t>317-Attend.txt</t>
-  </si>
-  <si>
-    <t>323-Attend.txt</t>
-  </si>
-  <si>
-    <t>324-Attend.txt</t>
-  </si>
-  <si>
-    <t>325-Attend.txt</t>
-  </si>
-  <si>
-    <t>326-Attend.txt</t>
-  </si>
-  <si>
-    <t>327-Attend.txt</t>
-  </si>
-  <si>
-    <t>328-Attend.txt</t>
-  </si>
-  <si>
-    <t>329-Attend.txt</t>
-  </si>
-  <si>
-    <t>330-Attend.txt</t>
-  </si>
-  <si>
-    <t>331-Attend.txt</t>
-  </si>
-  <si>
-    <t>332-Attend.txt</t>
-  </si>
-  <si>
-    <t>335-Attend.txt</t>
-  </si>
-  <si>
-    <t>338-Attend.txt</t>
-  </si>
-  <si>
-    <t>339-Attend.txt</t>
-  </si>
-  <si>
-    <t>340-Attend.txt</t>
-  </si>
-  <si>
-    <t>343-Attend.txt</t>
-  </si>
-  <si>
-    <t>344-Attend.txt</t>
-  </si>
-  <si>
-    <t>345-Attend.txt</t>
-  </si>
-  <si>
-    <t>346-Attend.txt</t>
-  </si>
-  <si>
-    <t>347-Attend.txt</t>
-  </si>
-  <si>
-    <t>348-Attend.txt</t>
-  </si>
-  <si>
-    <t>350-Attend.txt</t>
-  </si>
-  <si>
-    <t>351-Attend.txt</t>
-  </si>
-  <si>
-    <t>352-Attend.txt</t>
-  </si>
-  <si>
-    <t>353-Attend.txt</t>
-  </si>
-  <si>
-    <t>354-Attend.txt</t>
-  </si>
-  <si>
-    <t>356-Attend.txt</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -768,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -791,17 +83,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -811,9 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,29 +397,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -1153,8 +430,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.16375000000000001</v>
@@ -1167,8 +444,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>6.2499999999999986E-3</v>
@@ -1176,13 +453,10 @@
       <c r="C4">
         <v>0.39166666666666672</v>
       </c>
-      <c r="D4" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.20937500000000001</v>
@@ -1195,8 +469,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>6.2499999999999986E-3</v>
@@ -1204,13 +478,10 @@
       <c r="C6">
         <v>0.39166666666666672</v>
       </c>
-      <c r="D6" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7" s="2">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3.095238095238095E-2</v>
@@ -1223,8 +494,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3.095238095238095E-2</v>
@@ -1237,8 +508,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="2">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>-2.9916666666666671E-2</v>
@@ -1251,8 +522,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" s="2">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.03</v>
@@ -1265,8 +536,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" s="2">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>-0.1</v>
@@ -1279,8 +550,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12" s="2">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2.4999999999999931E-3</v>
@@ -1293,8 +564,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13" s="2">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.35</v>
@@ -1307,8 +578,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
+      <c r="A14" s="2">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2.6249999999999999E-2</v>
@@ -1321,8 +592,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15" s="2">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-2.9916666666666671E-2</v>
@@ -1335,8 +606,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
+      <c r="A16" s="2">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2.6923076923076921E-2</v>
@@ -1349,8 +620,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
+      <c r="A17" s="2">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.13863636363636361</v>
@@ -1363,7 +634,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2">
         <v>19</v>
       </c>
       <c r="B18">
@@ -1377,8 +648,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
+      <c r="A19" s="2">
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0.4</v>
@@ -1391,8 +662,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20" s="2">
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0.1110294117647059</v>
@@ -1405,8 +676,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
+      <c r="A21" s="2">
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1.1485507246376821E-2</v>
@@ -1419,8 +690,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
+      <c r="A22" s="2">
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2.2363945578231299E-2</v>
@@ -1433,8 +704,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
+      <c r="A23" s="2">
+        <v>25</v>
       </c>
       <c r="B23">
         <v>1.341666666666667E-2</v>
@@ -1447,8 +718,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>25</v>
+      <c r="A24" s="2">
+        <v>27</v>
       </c>
       <c r="B24">
         <v>2.043650793650794E-2</v>
@@ -1461,8 +732,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
+      <c r="A25" s="2">
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0.1229166666666667</v>
@@ -1475,8 +746,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
+      <c r="A26" s="2">
+        <v>29</v>
       </c>
       <c r="B26">
         <v>5.1041666666666673E-2</v>
@@ -1489,8 +760,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>28</v>
+      <c r="A27" s="2">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>1.1485507246376821E-2</v>
@@ -1503,8 +774,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>29</v>
+      <c r="A28" s="2">
+        <v>34</v>
       </c>
       <c r="B28">
         <v>9.7222222222222189E-3</v>
@@ -1517,8 +788,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>30</v>
+      <c r="A29" s="2">
+        <v>35</v>
       </c>
       <c r="B29">
         <v>-1.9047619047619019E-3</v>
@@ -1531,8 +802,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>31</v>
+      <c r="A30" s="2">
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2.5974025974025991E-3</v>
@@ -1545,8 +816,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>32</v>
+      <c r="A31" s="2">
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1.8728222996515699E-3</v>
@@ -1559,8 +830,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>33</v>
+      <c r="A32" s="2">
+        <v>38</v>
       </c>
       <c r="B32">
         <v>-2.5000000000000008E-2</v>
@@ -1573,8 +844,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33" s="2">
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1587,8 +858,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
+      <c r="A34" s="2">
+        <v>42</v>
       </c>
       <c r="B34">
         <v>-6.9999999999999993E-2</v>
@@ -1601,8 +872,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>36</v>
+      <c r="A35" s="2">
+        <v>45</v>
       </c>
       <c r="B35">
         <v>-4.1666666666666657E-3</v>
@@ -1615,8 +886,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>37</v>
+      <c r="A36" s="2">
+        <v>51</v>
       </c>
       <c r="B36">
         <v>8.3333333333333329E-2</v>
@@ -1629,8 +900,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>38</v>
+      <c r="A37" s="2">
+        <v>54</v>
       </c>
       <c r="B37">
         <v>-6.0185185185185203E-2</v>
@@ -1638,13 +909,10 @@
       <c r="C37">
         <v>0.30648148148148152</v>
       </c>
-      <c r="D37" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>39</v>
+      <c r="A38" s="2">
+        <v>55</v>
       </c>
       <c r="B38">
         <v>6.0515873015873052E-3</v>
@@ -1657,8 +925,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>40</v>
+      <c r="A39" s="2">
+        <v>56</v>
       </c>
       <c r="B39">
         <v>0.15</v>
@@ -1671,8 +939,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>41</v>
+      <c r="A40" s="2">
+        <v>58</v>
       </c>
       <c r="B40">
         <v>-0.05</v>
@@ -1685,8 +953,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>42</v>
+      <c r="A41" s="2">
+        <v>60</v>
       </c>
       <c r="B41">
         <v>-0.14583333333333329</v>
@@ -1699,8 +967,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>43</v>
+      <c r="A42" s="2">
+        <v>61</v>
       </c>
       <c r="B42">
         <v>-0.3</v>
@@ -1713,8 +981,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>44</v>
+      <c r="A43" s="2">
+        <v>62</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1727,8 +995,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>45</v>
+      <c r="A44" s="2">
+        <v>64</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1741,8 +1009,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>46</v>
+      <c r="A45" s="2">
+        <v>68</v>
       </c>
       <c r="B45">
         <v>-2.0952380952380951E-2</v>
@@ -1755,8 +1023,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>47</v>
+      <c r="A46" s="2">
+        <v>70</v>
       </c>
       <c r="B46">
         <v>0.17499999999999999</v>
@@ -1769,8 +1037,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>48</v>
+      <c r="A47" s="2">
+        <v>71</v>
       </c>
       <c r="B47">
         <v>0.23250000000000001</v>
@@ -1783,8 +1051,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>49</v>
+      <c r="A48" s="2">
+        <v>72</v>
       </c>
       <c r="B48">
         <v>0.1083333333333333</v>
@@ -1797,8 +1065,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>50</v>
+      <c r="A49" s="2">
+        <v>73</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1811,8 +1079,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>51</v>
+      <c r="A50" s="2">
+        <v>74</v>
       </c>
       <c r="B50">
         <v>0.5</v>
@@ -1825,8 +1093,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>52</v>
+      <c r="A51" s="2">
+        <v>75</v>
       </c>
       <c r="B51">
         <v>-2.715657552083332E-2</v>
@@ -1839,8 +1107,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>53</v>
+      <c r="A52" s="2">
+        <v>76</v>
       </c>
       <c r="B52">
         <v>0.15</v>
@@ -1853,8 +1121,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>54</v>
+      <c r="A53" s="2">
+        <v>77</v>
       </c>
       <c r="B53">
         <v>0.30399999999999999</v>
@@ -1867,8 +1135,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>55</v>
+      <c r="A54" s="2">
+        <v>78</v>
       </c>
       <c r="B54">
         <v>0.125</v>
@@ -1881,8 +1149,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>56</v>
+      <c r="A55" s="2">
+        <v>79</v>
       </c>
       <c r="B55">
         <v>3.7500000000000012E-2</v>
@@ -1895,8 +1163,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>57</v>
+      <c r="A56" s="2">
+        <v>81</v>
       </c>
       <c r="B56">
         <v>0.17499999999999999</v>
@@ -1909,8 +1177,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>58</v>
+      <c r="A57" s="2">
+        <v>82</v>
       </c>
       <c r="B57">
         <v>9.583333333333334E-2</v>
@@ -1923,8 +1191,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>59</v>
+      <c r="A58" s="2">
+        <v>83</v>
       </c>
       <c r="B58">
         <v>0.13595238095238099</v>
@@ -1937,8 +1205,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>60</v>
+      <c r="A59" s="2">
+        <v>87</v>
       </c>
       <c r="B59">
         <v>-0.1083333333333333</v>
@@ -1951,8 +1219,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>61</v>
+      <c r="A60" s="2">
+        <v>91</v>
       </c>
       <c r="B60">
         <v>0.1107142857142857</v>
@@ -1965,8 +1233,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>62</v>
+      <c r="A61" s="2">
+        <v>92</v>
       </c>
       <c r="B61">
         <v>-1.8421052631578949E-2</v>
@@ -1979,8 +1247,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>63</v>
+      <c r="A62" s="2">
+        <v>93</v>
       </c>
       <c r="B62">
         <v>0.16346153846153849</v>
@@ -1993,8 +1261,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>64</v>
+      <c r="A63" s="2">
+        <v>94</v>
       </c>
       <c r="B63">
         <v>9.027777777777779E-2</v>
@@ -2007,8 +1275,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>65</v>
+      <c r="A64" s="2">
+        <v>95</v>
       </c>
       <c r="B64">
         <v>0.125</v>
@@ -2021,8 +1289,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>66</v>
+      <c r="A65" s="2">
+        <v>98</v>
       </c>
       <c r="B65">
         <v>-0.1</v>
@@ -2035,8 +1303,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>67</v>
+      <c r="A66" s="2">
+        <v>100</v>
       </c>
       <c r="B66">
         <v>-0.17499999999999999</v>
@@ -2049,8 +1317,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>68</v>
+      <c r="A67" s="2">
+        <v>101</v>
       </c>
       <c r="B67">
         <v>-0.1</v>
@@ -2063,8 +1331,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>69</v>
+      <c r="A68" s="2">
+        <v>103</v>
       </c>
       <c r="B68">
         <v>0.25</v>
@@ -2077,8 +1345,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>70</v>
+      <c r="A69" s="2">
+        <v>105</v>
       </c>
       <c r="B69">
         <v>-6.5909090909090903E-2</v>
@@ -2091,8 +1359,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>71</v>
+      <c r="A70" s="2">
+        <v>106</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2105,8 +1373,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>72</v>
+      <c r="A71" s="2">
+        <v>107</v>
       </c>
       <c r="B71">
         <v>0.45833333333333331</v>
@@ -2119,8 +1387,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>73</v>
+      <c r="A72" s="2">
+        <v>108</v>
       </c>
       <c r="B72">
         <v>-1.007326007326007E-2</v>
@@ -2133,8 +1401,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>74</v>
+      <c r="A73" s="2">
+        <v>109</v>
       </c>
       <c r="B73">
         <v>9.8437500000000011E-2</v>
@@ -2147,8 +1415,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>75</v>
+      <c r="A74" s="2">
+        <v>110</v>
       </c>
       <c r="B74">
         <v>0.1142857142857143</v>
@@ -2161,8 +1429,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>76</v>
+      <c r="A75" s="2">
+        <v>112</v>
       </c>
       <c r="B75">
         <v>-4.4444444444444439E-2</v>
@@ -2175,8 +1443,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>77</v>
+      <c r="A76" s="2">
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0.26</v>
@@ -2189,8 +1457,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>78</v>
+      <c r="A77" s="2">
+        <v>116</v>
       </c>
       <c r="B77">
         <v>6.6666666666666666E-2</v>
@@ -2203,8 +1471,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>79</v>
+      <c r="A78" s="2">
+        <v>120</v>
       </c>
       <c r="B78">
         <v>-4.1666666666666657E-2</v>
@@ -2217,8 +1485,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>80</v>
+      <c r="A79" s="2">
+        <v>121</v>
       </c>
       <c r="B79">
         <v>-4.1666666666666657E-2</v>
@@ -2231,8 +1499,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>81</v>
+      <c r="A80" s="2">
+        <v>122</v>
       </c>
       <c r="B80">
         <v>-3.5714285714285712E-2</v>
@@ -2245,8 +1513,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>82</v>
+      <c r="A81" s="2">
+        <v>124</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2259,8 +1527,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>83</v>
+      <c r="A82" s="2">
+        <v>125</v>
       </c>
       <c r="B82">
         <v>0.5</v>
@@ -2273,8 +1541,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>84</v>
+      <c r="A83" s="2">
+        <v>126</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2287,8 +1555,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>85</v>
+      <c r="A84" s="2">
+        <v>127</v>
       </c>
       <c r="B84">
         <v>0.15</v>
@@ -2301,8 +1569,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>86</v>
+      <c r="A85" s="2">
+        <v>128</v>
       </c>
       <c r="B85">
         <v>-0.05</v>
@@ -2315,8 +1583,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>87</v>
+      <c r="A86" s="2">
+        <v>129</v>
       </c>
       <c r="B86">
         <v>0.43333333333333329</v>
@@ -2329,8 +1597,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>88</v>
+      <c r="A87" s="2">
+        <v>130</v>
       </c>
       <c r="B87">
         <v>-0.05</v>
@@ -2343,8 +1611,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>89</v>
+      <c r="A88" s="2">
+        <v>132</v>
       </c>
       <c r="B88">
         <v>0.1675084175084175</v>
@@ -2357,8 +1625,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>90</v>
+      <c r="A89" s="2">
+        <v>133</v>
       </c>
       <c r="B89">
         <v>0.2045454545454545</v>
@@ -2371,8 +1639,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>91</v>
+      <c r="A90" s="2">
+        <v>134</v>
       </c>
       <c r="B90">
         <v>0.55000000000000004</v>
@@ -2385,8 +1653,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>92</v>
+      <c r="A91" s="2">
+        <v>135</v>
       </c>
       <c r="B91">
         <v>3.3333333333333361E-2</v>
@@ -2399,8 +1667,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>93</v>
+      <c r="A92" s="2">
+        <v>137</v>
       </c>
       <c r="B92">
         <v>-7.9166666666666677E-2</v>
@@ -2413,8 +1681,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>94</v>
+      <c r="A93" s="2">
+        <v>138</v>
       </c>
       <c r="B93">
         <v>0.15</v>
@@ -2427,8 +1695,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>95</v>
+      <c r="A94" s="2">
+        <v>140</v>
       </c>
       <c r="B94">
         <v>3.8541666666666669E-2</v>
@@ -2441,8 +1709,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>96</v>
+      <c r="A95" s="2">
+        <v>142</v>
       </c>
       <c r="B95">
         <v>0.05</v>
@@ -2455,8 +1723,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>97</v>
+      <c r="A96" s="2">
+        <v>143</v>
       </c>
       <c r="B96">
         <v>0.2166666666666667</v>
@@ -2469,8 +1737,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>98</v>
+      <c r="A97" s="2">
+        <v>144</v>
       </c>
       <c r="B97">
         <v>-0.14479166666666671</v>
@@ -2483,8 +1751,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>99</v>
+      <c r="A98" s="2">
+        <v>145</v>
       </c>
       <c r="B98">
         <v>0.05</v>
@@ -2497,8 +1765,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>100</v>
+      <c r="A99" s="2">
+        <v>146</v>
       </c>
       <c r="B99">
         <v>0.16666666666666671</v>
@@ -2511,8 +1779,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>101</v>
+      <c r="A100" s="2">
+        <v>147</v>
       </c>
       <c r="B100">
         <v>0.1</v>
@@ -2525,8 +1793,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>102</v>
+      <c r="A101" s="2">
+        <v>149</v>
       </c>
       <c r="B101">
         <v>0.18986111111111109</v>
@@ -2539,8 +1807,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>103</v>
+      <c r="A102" s="2">
+        <v>151</v>
       </c>
       <c r="B102">
         <v>-0.1</v>
@@ -2553,8 +1821,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>104</v>
+      <c r="A103" s="2">
+        <v>152</v>
       </c>
       <c r="B103">
         <v>-8.7499999999999994E-2</v>
@@ -2567,8 +1835,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>105</v>
+      <c r="A104" s="2">
+        <v>154</v>
       </c>
       <c r="B104">
         <v>-2.7619047619047619E-2</v>
@@ -2581,8 +1849,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>106</v>
+      <c r="A105" s="2">
+        <v>156</v>
       </c>
       <c r="B105">
         <v>-9.7023809523809526E-2</v>
@@ -2595,8 +1863,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>107</v>
+      <c r="A106" s="2">
+        <v>157</v>
       </c>
       <c r="B106">
         <v>2.5757575757575771E-2</v>
@@ -2609,8 +1877,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>108</v>
+      <c r="A107" s="2">
+        <v>158</v>
       </c>
       <c r="B107">
         <v>5.7356459330143557E-2</v>
@@ -2623,8 +1891,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>109</v>
+      <c r="A108" s="2">
+        <v>159</v>
       </c>
       <c r="B108">
         <v>4.791666666666667E-2</v>
@@ -2637,8 +1905,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>110</v>
+      <c r="A109" s="2">
+        <v>160</v>
       </c>
       <c r="B109">
         <v>-2.8846153846153851E-2</v>
@@ -2651,8 +1919,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>111</v>
+      <c r="A110" s="2">
+        <v>162</v>
       </c>
       <c r="B110">
         <v>-2.8236914600551018E-3</v>
@@ -2665,8 +1933,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>112</v>
+      <c r="A111" s="2">
+        <v>163</v>
       </c>
       <c r="B111">
         <v>-4.7222222222222228E-2</v>
@@ -2679,8 +1947,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>113</v>
+      <c r="A112" s="2">
+        <v>164</v>
       </c>
       <c r="B112">
         <v>-4.7222222222222228E-2</v>
@@ -2693,8 +1961,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>114</v>
+      <c r="A113" s="2">
+        <v>165</v>
       </c>
       <c r="B113">
         <v>-0.1</v>
@@ -2707,8 +1975,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>115</v>
+      <c r="A114" s="2">
+        <v>167</v>
       </c>
       <c r="B114">
         <v>-2.1590909090909091E-2</v>
@@ -2721,8 +1989,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>116</v>
+      <c r="A115" s="2">
+        <v>168</v>
       </c>
       <c r="B115">
         <v>9.999999999999995E-3</v>
@@ -2735,8 +2003,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>117</v>
+      <c r="A116" s="2">
+        <v>172</v>
       </c>
       <c r="B116">
         <v>0.4</v>
@@ -2749,8 +2017,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>118</v>
+      <c r="A117" s="2">
+        <v>173</v>
       </c>
       <c r="B117">
         <v>9.8278236914600553E-2</v>
@@ -2763,8 +2031,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>119</v>
+      <c r="A118" s="2">
+        <v>174</v>
       </c>
       <c r="B118">
         <v>0.155</v>
@@ -2777,8 +2045,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>120</v>
+      <c r="A119" s="2">
+        <v>176</v>
       </c>
       <c r="B119">
         <v>0.21111111111111111</v>
@@ -2791,8 +2059,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>121</v>
+      <c r="A120" s="2">
+        <v>177</v>
       </c>
       <c r="B120">
         <v>-0.13958333333333331</v>
@@ -2805,8 +2073,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>122</v>
+      <c r="A121" s="2">
+        <v>178</v>
       </c>
       <c r="B121">
         <v>-7.0999999999999994E-2</v>
@@ -2819,8 +2087,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>123</v>
+      <c r="A122" s="2">
+        <v>179</v>
       </c>
       <c r="B122">
         <v>0.31666666666666671</v>
@@ -2833,8 +2101,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>124</v>
+      <c r="A123" s="2">
+        <v>181</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2847,8 +2115,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>125</v>
+      <c r="A124" s="2">
+        <v>182</v>
       </c>
       <c r="B124">
         <v>8.8939393939393915E-2</v>
@@ -2861,8 +2129,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>126</v>
+      <c r="A125" s="2">
+        <v>183</v>
       </c>
       <c r="B125">
         <v>8.8939393939393915E-2</v>
@@ -2875,8 +2143,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>127</v>
+      <c r="A126" s="2">
+        <v>184</v>
       </c>
       <c r="B126">
         <v>-0.1</v>
@@ -2889,8 +2157,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>128</v>
+      <c r="A127" s="2">
+        <v>186</v>
       </c>
       <c r="B127">
         <v>-0.3</v>
@@ -2903,8 +2171,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>129</v>
+      <c r="A128" s="2">
+        <v>187</v>
       </c>
       <c r="B128">
         <v>0.1125</v>
@@ -2917,8 +2185,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>130</v>
+      <c r="A129" s="2">
+        <v>188</v>
       </c>
       <c r="B129">
         <v>-2.6666666666666661E-2</v>
@@ -2931,8 +2199,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>131</v>
+      <c r="A130" s="2">
+        <v>189</v>
       </c>
       <c r="B130">
         <v>-8.3333333333333193E-3</v>
@@ -2945,8 +2213,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>132</v>
+      <c r="A131" s="2">
+        <v>190</v>
       </c>
       <c r="B131">
         <v>-0.05</v>
@@ -2959,8 +2227,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>133</v>
+      <c r="A132" s="2">
+        <v>191</v>
       </c>
       <c r="B132">
         <v>-0.05</v>
@@ -2973,8 +2241,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>134</v>
+      <c r="A133" s="2">
+        <v>193</v>
       </c>
       <c r="B133">
         <v>6.2499999999999993E-2</v>
@@ -2987,8 +2255,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>135</v>
+      <c r="A134" s="2">
+        <v>194</v>
       </c>
       <c r="B134">
         <v>-3.035714285714286E-2</v>
@@ -3001,8 +2269,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>136</v>
+      <c r="A135" s="2">
+        <v>195</v>
       </c>
       <c r="B135">
         <v>0.1958333333333333</v>
@@ -3015,8 +2283,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>137</v>
+      <c r="A136" s="2">
+        <v>200</v>
       </c>
       <c r="B136">
         <v>0.1</v>
@@ -3029,8 +2297,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>138</v>
+      <c r="A137" s="2">
+        <v>203</v>
       </c>
       <c r="B137">
         <v>9.999999999999995E-3</v>
@@ -3043,8 +2311,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>139</v>
+      <c r="A138" s="2">
+        <v>205</v>
       </c>
       <c r="B138">
         <v>0.31666666666666671</v>
@@ -3057,8 +2325,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>140</v>
+      <c r="A139" s="2">
+        <v>212</v>
       </c>
       <c r="B139">
         <v>0.4</v>
@@ -3071,8 +2339,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>141</v>
+      <c r="A140" s="2">
+        <v>213</v>
       </c>
       <c r="B140">
         <v>-6.0937499999999999E-2</v>
@@ -3085,8 +2353,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>142</v>
+      <c r="A141" s="2">
+        <v>222</v>
       </c>
       <c r="B141">
         <v>0.125</v>
@@ -3099,8 +2367,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>143</v>
+      <c r="A142" s="2">
+        <v>223</v>
       </c>
       <c r="B142">
         <v>-0.05</v>
@@ -3113,8 +2381,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>144</v>
+      <c r="A143" s="2">
+        <v>225</v>
       </c>
       <c r="B143">
         <v>4.3749999999999997E-2</v>
@@ -3127,8 +2395,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>145</v>
+      <c r="A144" s="2">
+        <v>227</v>
       </c>
       <c r="B144">
         <v>0.3</v>
@@ -3141,8 +2409,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>146</v>
+      <c r="A145" s="2">
+        <v>228</v>
       </c>
       <c r="B145">
         <v>-4.4999999999999998E-2</v>
@@ -3155,8 +2423,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>147</v>
+      <c r="A146" s="2">
+        <v>229</v>
       </c>
       <c r="B146">
         <v>0.1553571428571428</v>
@@ -3169,8 +2437,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>148</v>
+      <c r="A147" s="2">
+        <v>230</v>
       </c>
       <c r="B147">
         <v>0.3</v>
@@ -3183,8 +2451,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>149</v>
+      <c r="A148" s="2">
+        <v>231</v>
       </c>
       <c r="B148">
         <v>-2.8125000000000001E-2</v>
@@ -3197,8 +2465,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>150</v>
+      <c r="A149" s="2">
+        <v>233</v>
       </c>
       <c r="B149">
         <v>0.1222222222222222</v>
@@ -3211,8 +2479,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>151</v>
+      <c r="A150" s="2">
+        <v>236</v>
       </c>
       <c r="B150">
         <v>0.34444444444444439</v>
@@ -3225,8 +2493,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>152</v>
+      <c r="A151" s="2">
+        <v>237</v>
       </c>
       <c r="B151">
         <v>0.1</v>
@@ -3239,8 +2507,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>153</v>
+      <c r="A152" s="2">
+        <v>238</v>
       </c>
       <c r="B152">
         <v>9.7916666666666666E-2</v>
@@ -3253,8 +2521,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>154</v>
+      <c r="A153" s="2">
+        <v>239</v>
       </c>
       <c r="B153">
         <v>0.120625</v>
@@ -3267,8 +2535,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>155</v>
+      <c r="A154" s="2">
+        <v>240</v>
       </c>
       <c r="B154">
         <v>9.9999999999999992E-2</v>
@@ -3281,8 +2549,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>156</v>
+      <c r="A155" s="2">
+        <v>241</v>
       </c>
       <c r="B155">
         <v>-3.1666666666666669E-2</v>
@@ -3295,8 +2563,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>157</v>
+      <c r="A156" s="2">
+        <v>242</v>
       </c>
       <c r="B156">
         <v>6.7000000000000004E-2</v>
@@ -3309,8 +2577,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>158</v>
+      <c r="A157" s="2">
+        <v>243</v>
       </c>
       <c r="B157">
         <v>0.1575</v>
@@ -3323,8 +2591,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>159</v>
+      <c r="A158" s="2">
+        <v>244</v>
       </c>
       <c r="B158">
         <v>0.1119047619047619</v>
@@ -3337,8 +2605,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>160</v>
+      <c r="A159" s="2">
+        <v>245</v>
       </c>
       <c r="B159">
         <v>0.22954545454545461</v>
@@ -3351,8 +2619,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>161</v>
+      <c r="A160" s="2">
+        <v>246</v>
       </c>
       <c r="B160">
         <v>0.2440508021390374</v>
@@ -3365,8 +2633,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>162</v>
+      <c r="A161" s="2">
+        <v>247</v>
       </c>
       <c r="B161">
         <v>-3.4210526315789469E-2</v>
@@ -3379,8 +2647,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>163</v>
+      <c r="A162" s="2">
+        <v>248</v>
       </c>
       <c r="B162">
         <v>0.20624999999999999</v>
@@ -3393,8 +2661,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>164</v>
+      <c r="A163" s="2">
+        <v>249</v>
       </c>
       <c r="B163">
         <v>0.1</v>
@@ -3407,8 +2675,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>165</v>
+      <c r="A164" s="2">
+        <v>250</v>
       </c>
       <c r="B164">
         <v>0.1645833333333333</v>
@@ -3421,8 +2689,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>166</v>
+      <c r="A165" s="2">
+        <v>251</v>
       </c>
       <c r="B165">
         <v>0.1645833333333333</v>
@@ -3435,8 +2703,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>167</v>
+      <c r="A166" s="2">
+        <v>252</v>
       </c>
       <c r="B166">
         <v>-7.8125E-2</v>
@@ -3449,8 +2717,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>168</v>
+      <c r="A167" s="2">
+        <v>253</v>
       </c>
       <c r="B167">
         <v>-0.1</v>
@@ -3463,8 +2731,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>169</v>
+      <c r="A168" s="2">
+        <v>255</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3477,8 +2745,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>170</v>
+      <c r="A169" s="2">
+        <v>256</v>
       </c>
       <c r="B169">
         <v>5.8333333333333327E-2</v>
@@ -3491,8 +2759,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>171</v>
+      <c r="A170" s="2">
+        <v>257</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3505,8 +2773,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>172</v>
+      <c r="A171" s="2">
+        <v>258</v>
       </c>
       <c r="B171">
         <v>0.25</v>
@@ -3519,8 +2787,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>173</v>
+      <c r="A172" s="2">
+        <v>261</v>
       </c>
       <c r="B172">
         <v>-0.1</v>
@@ -3533,8 +2801,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>174</v>
+      <c r="A173" s="2">
+        <v>262</v>
       </c>
       <c r="B173">
         <v>2.3333333333333341E-2</v>
@@ -3547,8 +2815,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>175</v>
+      <c r="A174" s="2">
+        <v>263</v>
       </c>
       <c r="B174">
         <v>-3.6111111111111108E-2</v>
@@ -3561,8 +2829,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>176</v>
+      <c r="A175" s="2">
+        <v>264</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3575,8 +2843,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>177</v>
+      <c r="A176" s="2">
+        <v>266</v>
       </c>
       <c r="B176">
         <v>6.2500000000000014E-2</v>
@@ -3589,8 +2857,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>178</v>
+      <c r="A177" s="2">
+        <v>267</v>
       </c>
       <c r="B177">
         <v>-0.1</v>
@@ -3603,8 +2871,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>179</v>
+      <c r="A178" s="2">
+        <v>274</v>
       </c>
       <c r="B178">
         <v>-0.15625</v>
@@ -3617,8 +2885,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>180</v>
+      <c r="A179" s="2">
+        <v>275</v>
       </c>
       <c r="B179">
         <v>7.499999999999998E-3</v>
@@ -3631,8 +2899,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>181</v>
+      <c r="A180" s="2">
+        <v>276</v>
       </c>
       <c r="B180">
         <v>-0.15625</v>
@@ -3645,8 +2913,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>182</v>
+      <c r="A181" s="2">
+        <v>277</v>
       </c>
       <c r="B181">
         <v>-4.9166666666666671E-2</v>
@@ -3659,8 +2927,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>183</v>
+      <c r="A182" s="2">
+        <v>280</v>
       </c>
       <c r="B182">
         <v>-3.2499999999999987E-2</v>
@@ -3673,8 +2941,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>184</v>
+      <c r="A183" s="2">
+        <v>281</v>
       </c>
       <c r="B183">
         <v>2.4999999999999991E-2</v>
@@ -3687,8 +2955,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>185</v>
+      <c r="A184" s="2">
+        <v>282</v>
       </c>
       <c r="B184">
         <v>-1.1363636363636369E-2</v>
@@ -3701,8 +2969,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>186</v>
+      <c r="A185" s="2">
+        <v>284</v>
       </c>
       <c r="B185">
         <v>4.6249999999999999E-2</v>
@@ -3710,13 +2978,10 @@
       <c r="C185">
         <v>0.25</v>
       </c>
-      <c r="D185" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>187</v>
+      <c r="A186" s="2">
+        <v>285</v>
       </c>
       <c r="B186">
         <v>-0.19444444444444439</v>
@@ -3729,8 +2994,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>188</v>
+      <c r="A187" s="2">
+        <v>286</v>
       </c>
       <c r="B187">
         <v>-0.1</v>
@@ -3743,8 +3008,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>189</v>
+      <c r="A188" s="2">
+        <v>287</v>
       </c>
       <c r="B188">
         <v>-0.31607142857142861</v>
@@ -3757,8 +3022,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>190</v>
+      <c r="A189" s="2">
+        <v>288</v>
       </c>
       <c r="B189">
         <v>0.11</v>
@@ -3771,8 +3036,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>191</v>
+      <c r="A190" s="2">
+        <v>293</v>
       </c>
       <c r="B190">
         <v>-0.19791666666666671</v>
@@ -3785,8 +3050,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>192</v>
+      <c r="A191" s="2">
+        <v>294</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3799,8 +3064,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>193</v>
+      <c r="A192" s="2">
+        <v>295</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3813,8 +3078,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>194</v>
+      <c r="A193" s="2">
+        <v>297</v>
       </c>
       <c r="B193">
         <v>0.1</v>
@@ -3827,8 +3092,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>195</v>
+      <c r="A194" s="2">
+        <v>298</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3841,8 +3106,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>196</v>
+      <c r="A195" s="2">
+        <v>299</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3855,8 +3120,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>197</v>
+      <c r="A196" s="2">
+        <v>300</v>
       </c>
       <c r="B196">
         <v>-3.3333333333333333E-2</v>
@@ -3869,8 +3134,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>198</v>
+      <c r="A197" s="2">
+        <v>301</v>
       </c>
       <c r="B197">
         <v>4.9999999999999989E-2</v>
@@ -3883,8 +3148,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>199</v>
+      <c r="A198" s="2">
+        <v>302</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3897,8 +3162,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>200</v>
+      <c r="A199" s="2">
+        <v>303</v>
       </c>
       <c r="B199">
         <v>6.8783068783068779E-2</v>
@@ -3911,8 +3176,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>201</v>
+      <c r="A200" s="2">
+        <v>305</v>
       </c>
       <c r="B200">
         <v>-1.111111111111111E-2</v>
@@ -3925,8 +3190,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>202</v>
+      <c r="A201" s="2">
+        <v>306</v>
       </c>
       <c r="B201">
         <v>-0.1166666666666667</v>
@@ -3939,8 +3204,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>203</v>
+      <c r="A202" s="2">
+        <v>308</v>
       </c>
       <c r="B202">
         <v>-0.1</v>
@@ -3953,8 +3218,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>204</v>
+      <c r="A203" s="2">
+        <v>309</v>
       </c>
       <c r="B203">
         <v>-0.1</v>
@@ -3967,8 +3232,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>205</v>
+      <c r="A204" s="2">
+        <v>311</v>
       </c>
       <c r="B204">
         <v>-0.09</v>
@@ -3981,8 +3246,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>206</v>
+      <c r="A205" s="2">
+        <v>312</v>
       </c>
       <c r="B205">
         <v>-9.0848214285714296E-2</v>
@@ -3995,8 +3260,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>207</v>
+      <c r="A206" s="2">
+        <v>313</v>
       </c>
       <c r="B206">
         <v>-9.0848214285714296E-2</v>
@@ -4009,8 +3274,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>208</v>
+      <c r="A207" s="2">
+        <v>314</v>
       </c>
       <c r="B207">
         <v>-9.0848214285714296E-2</v>
@@ -4023,8 +3288,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>209</v>
+      <c r="A208" s="2">
+        <v>315</v>
       </c>
       <c r="B208">
         <v>-6.2500000000000003E-3</v>
@@ -4032,13 +3297,10 @@
       <c r="C208">
         <v>0.5</v>
       </c>
-      <c r="D208" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>210</v>
+      <c r="A209" s="2">
+        <v>316</v>
       </c>
       <c r="B209">
         <v>-0.1</v>
@@ -4051,8 +3313,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>211</v>
+      <c r="A210" s="2">
+        <v>317</v>
       </c>
       <c r="B210">
         <v>0.23333333333333339</v>
@@ -4065,8 +3327,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>212</v>
+      <c r="A211" s="2">
+        <v>323</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -4079,8 +3341,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>213</v>
+      <c r="A212" s="2">
+        <v>324</v>
       </c>
       <c r="B212">
         <v>-6.2500000000000003E-3</v>
@@ -4093,8 +3355,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>214</v>
+      <c r="A213" s="2">
+        <v>325</v>
       </c>
       <c r="B213">
         <v>-8.3333333333333329E-2</v>
@@ -4107,8 +3369,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>215</v>
+      <c r="A214" s="2">
+        <v>326</v>
       </c>
       <c r="B214">
         <v>6.25E-2</v>
@@ -4121,8 +3383,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>216</v>
+      <c r="A215" s="2">
+        <v>327</v>
       </c>
       <c r="B215">
         <v>-0.1075</v>
@@ -4135,8 +3397,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>217</v>
+      <c r="A216" s="2">
+        <v>328</v>
       </c>
       <c r="B216">
         <v>-0.1</v>
@@ -4144,13 +3406,10 @@
       <c r="C216">
         <v>0.4</v>
       </c>
-      <c r="D216" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>218</v>
+      <c r="A217" s="2">
+        <v>329</v>
       </c>
       <c r="B217">
         <v>-0.1</v>
@@ -4163,8 +3422,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>219</v>
+      <c r="A218" s="2">
+        <v>330</v>
       </c>
       <c r="B218">
         <v>0.1</v>
@@ -4177,8 +3436,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>220</v>
+      <c r="A219" s="2">
+        <v>331</v>
       </c>
       <c r="B219">
         <v>-0.1166666666666667</v>
@@ -4191,8 +3450,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>221</v>
+      <c r="A220" s="2">
+        <v>332</v>
       </c>
       <c r="B220">
         <v>-7.7777777777777779E-2</v>
@@ -4205,8 +3464,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>222</v>
+      <c r="A221" s="2">
+        <v>335</v>
       </c>
       <c r="B221">
         <v>-6.5625000000000003E-2</v>
@@ -4219,8 +3478,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>223</v>
+      <c r="A222" s="2">
+        <v>338</v>
       </c>
       <c r="B222">
         <v>-3.4375000000000003E-2</v>
@@ -4233,8 +3492,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>224</v>
+      <c r="A223" s="2">
+        <v>339</v>
       </c>
       <c r="B223">
         <v>-6.5625000000000003E-2</v>
@@ -4247,8 +3506,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>225</v>
+      <c r="A224" s="2">
+        <v>340</v>
       </c>
       <c r="B224">
         <v>-6.5625000000000003E-2</v>
@@ -4261,8 +3520,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>226</v>
+      <c r="A225" s="2">
+        <v>343</v>
       </c>
       <c r="B225">
         <v>-7.8125E-2</v>
@@ -4275,8 +3534,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>227</v>
+      <c r="A226" s="2">
+        <v>344</v>
       </c>
       <c r="B226">
         <v>-3.3333333333333333E-2</v>
@@ -4289,8 +3548,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>228</v>
+      <c r="A227" s="2">
+        <v>345</v>
       </c>
       <c r="B227">
         <v>-5.000000000000001E-2</v>
@@ -4303,8 +3562,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>229</v>
+      <c r="A228" s="2">
+        <v>346</v>
       </c>
       <c r="B228">
         <v>-8.7499999999999994E-2</v>
@@ -4317,8 +3576,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>230</v>
+      <c r="A229" s="2">
+        <v>347</v>
       </c>
       <c r="B229">
         <v>-0.1083333333333333</v>
@@ -4331,8 +3590,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>231</v>
+      <c r="A230" s="2">
+        <v>348</v>
       </c>
       <c r="B230">
         <v>2.4999999999999991E-2</v>
@@ -4345,8 +3604,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>232</v>
+      <c r="A231" s="2">
+        <v>350</v>
       </c>
       <c r="B231">
         <v>0.04</v>
@@ -4359,8 +3618,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>233</v>
+      <c r="A232" s="2">
+        <v>351</v>
       </c>
       <c r="B232">
         <v>0.32500000000000001</v>
@@ -4373,8 +3632,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>234</v>
+      <c r="A233" s="2">
+        <v>352</v>
       </c>
       <c r="B233">
         <v>0.44166666666666671</v>
@@ -4387,8 +3646,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>235</v>
+      <c r="A234" s="2">
+        <v>353</v>
       </c>
       <c r="B234">
         <v>0.17499999999999999</v>
@@ -4401,8 +3660,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>236</v>
+      <c r="A235" s="2">
+        <v>354</v>
       </c>
       <c r="B235">
         <v>0.5</v>
@@ -4415,8 +3674,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>237</v>
+      <c r="A236" s="2">
+        <v>356</v>
       </c>
       <c r="B236">
         <v>-0.125</v>
